--- a/806209426/localisation/excel/bftb_ideas_l_german.xlsx
+++ b/806209426/localisation/excel/bftb_ideas_l_german.xlsx
@@ -178,7 +178,7 @@
     <t xml:space="preserve"> GRE_political_instability_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Die Menschen haben genug und sind bereit für Stabilität in ihrer Regierung. Sie sind aber auch skeptisch, was die langfristigen Überlebenschancen einer wie auch immer gearteten Regierung angeht. Wir müssen sie überzeugen, dass ihre Skepsis nicht angebracht ist. Wir müssen den ständigen Streitigkeiten ein Ende setzen, indem wir unsere politischen Gegner spuren lassen.</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Die Menschen haben genug und sind bereit für Stabilität in ihrer Regierung. Sie sind aber auch skeptisch, was die langfristigen Überlebenschancen einer wie auch immer gearteten Regierung angeht. Wir müssen sie überzeugen, dass ihre Skepsis nicht angebracht ist. Wir müssen den ständigen Streitigkeiten ein Ende setzen, indem wir unsere politischen Gegner spuren lassen.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_political_instability_dummy_desc:</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve"> GRE_political_instability_republican_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Leider ist die Erinnerung an die Kleinasiatische Katastrophe noch sehr präsent in den Köpfen des griechischen Volks, und sie haben auch nicht vergessen, welche Rolle wir dabei gespielt haben.</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Leider ist die Erinnerung an die Kleinasiatische Katastrophe noch sehr präsent in den Köpfen des griechischen Volks, und sie haben auch nicht vergessen, welche Rolle wir dabei gespielt haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_political_instability_republican_2:</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve"> GRE_political_instability_republican_2_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Es liegt nun an uns, unserem Vermächtnis gerecht zu werden und die Reise zu beenden, die Griechenland 1919 begonnen hat, als wir versucht haben, Konstantinopel zurückzuerobern ...</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Es liegt nun an uns, unserem Vermächtnis gerecht zu werden und die Reise zu beenden, die Griechenland 1919 begonnen hat, als wir versucht haben, Konstantinopel zurückzuerobern ...</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_political_instability_communist:</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve"> GRE_political_instability_communist_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Zum ersten Mal seit sehr langer Zeit gibt es in Griechenland endlich eine Bewegung, das die Kontrolle über die Nation in die Hände des griechischen Volks legen möchte. Aber unsere Bewegung ist noch jung, und wir müssen uns noch beweisen, ehe die Menschen wirklich auf unsere Herrschaft vertrauen.</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Zum ersten Mal seit sehr langer Zeit gibt es in Griechenland endlich eine Bewegung, das die Kontrolle über die Nation in die Hände des griechischen Volks legen möchte. Aber unsere Bewegung ist noch jung, und wir müssen uns noch beweisen, ehe die Menschen wirklich auf unsere Herrschaft vertrauen.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_political_instability_metaxas:</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve"> GRE_political_instability_metaxas_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Unter der Führung von Metaxas werden wir Einheit durch Stärke erlangen, indem wir alle unsere Feinde vernichten! Das griechische Volk wird noch lernen, wie eine Regierung agiert, die den Willen hat, in diesem gesetzlosen Land für Ordnung zu sorgen.</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Unter der Führung von Metaxas werden wir Einheit durch Stärke erlangen, indem wir alle unsere Feinde vernichten! Das griechische Volk wird noch lernen, wie eine Regierung agiert, die den Willen hat, in diesem gesetzlosen Land für Ordnung zu sorgen.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_political_instability_fascism:</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve"> GRE_political_instability_fascism_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Der Faschismus stellt die Einheit über alles andere. Wenn wir das griechische Volk nicht effektiv mobilisieren können und ihm nicht helfen können zu erkennen, dass der Faschismus die offensichtliche Antwort auf Griechenlands Sorgen ist, dann haben wir es nicht verdient zu herrschen.</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Der Faschismus stellt die Einheit über alles andere. Wenn wir das griechische Volk nicht effektiv mobilisieren können und ihm nicht helfen können zu erkennen, dass der Faschismus die offensichtliche Antwort auf Griechenlands Sorgen ist, dann haben wir es nicht verdient zu herrschen.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_state_of_the_nation_monarchism:</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve"> GRE_state_of_the_nation_monarchism_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]</t>
+    <t xml:space="preserve">§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_state_of_the_nation_metaxism:</t>
@@ -349,25 +349,25 @@
     <t xml:space="preserve"> GRE_monarchists_friendly_or_loyal:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_gre_monarchist §YMonarchisten§! sind freundlich oder loyal.</t>
+    <t xml:space="preserve">Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind freundlich oder loyal.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_republicans_friendly_or_loyal:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_gre_venezelist §YRepublikaner§! sind freundlich oder loyal.</t>
+    <t xml:space="preserve">Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind freundlich oder loyal.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_communists_friendly_or_loyal:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_gre_communist §YKommunisten§! sind freundlich oder loyal.</t>
+    <t xml:space="preserve">Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind freundlich oder loyal.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_fascists_friendly_or_loyal:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_gre_fascist §YFaschisten§! sind freundlich oder loyal.</t>
+    <t xml:space="preserve">Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind freundlich oder loyal.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_metaxism:</t>
@@ -961,13 +961,13 @@
     <t xml:space="preserve"> onassis_proposition_accepted:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YAristoteles Onassis§! hat seine anti-faschistische Organisation gegründet.</t>
+    <t xml:space="preserve">§Y§Y Aristoteles Onassis §!§!  hat seine anti-faschistische Organisation gegründet.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_metaxas_is_dead_crab_rave_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YIoannis Metaxas§! ist gestorben.</t>
+    <t xml:space="preserve">§Y§Y Ioannis Metaxas §!§!  ist gestorben.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_ioannis_metaxas:</t>
@@ -1132,7 +1132,7 @@
     <t xml:space="preserve"> GRE_nation_is_monarchy_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat die Idee §YGeorg. II§!</t>
+    <t xml:space="preserve">Hat die Idee §Y§Y Georg. II §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_basileiades:</t>
@@ -1558,7 +1558,7 @@
     <t xml:space="preserve"> TUR_sectarian_woes_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus entschieden ab. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen.</t>
+    <t xml:space="preserve">§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus entschieden ab. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_sectarian_woes_1:</t>
@@ -1567,7 +1567,7 @@
     <t xml:space="preserve"> TUR_sectarian_woes_1_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus noch immer entschieden ab. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen.</t>
+    <t xml:space="preserve">§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus noch immer entschieden ab. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_sectarian_woes_2:</t>
@@ -1576,7 +1576,7 @@
     <t xml:space="preserve"> TUR_sectarian_woes_desc_2:</t>
   </si>
   <si>
-    <t xml:space="preserve">§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen.</t>
+    <t xml:space="preserve">§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_rearmament_scheme:</t>
@@ -1624,7 +1624,7 @@
     <t xml:space="preserve"> TUR_etatism_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen Spannungen entstehen.§!</t>
+    <t xml:space="preserve">Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen Spannungen entstehen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_etatism_2:</t>
@@ -1633,7 +1633,7 @@
     <t xml:space="preserve"> TUR_etatism_2_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir dürfen sie nicht zu sehr beanspruchen, indem wir versuchen, gleichzeitig eine Kriegswirtschaft zu betreiben. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen.§!</t>
+    <t xml:space="preserve">Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir dürfen sie nicht zu sehr beanspruchen, indem wir versuchen, gleichzeitig eine Kriegswirtschaft zu betreiben. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_etatism_3:</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve"> TUR_etatism_3_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir haben sie stark beansprucht, indem wir versucht haben, gleichzeitig eine Kriegswirtschaft zu betreiben. Wir müssen die Lage vielleicht neu bewerten und das etatistische Experiment beenden. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen.§!</t>
+    <t xml:space="preserve">Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir haben sie stark beansprucht, indem wir versucht haben, gleichzeitig eine Kriegswirtschaft zu betreiben. Wir müssen die Lage vielleicht neu bewerten und das etatistische Experiment beenden. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_etatism_4:</t>
@@ -1651,7 +1651,7 @@
     <t xml:space="preserve"> TUR_etatism_4_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere Wirtschaft war einzigartig in der Welt. Sie besaß Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Wir waren fahrlässig und gierig, und wir riskieren es, die Wirtschaft unseres Landes zu zerstören, indem wir an einem etatistischen Modell festhalten und gleichzeitig eine Kriegswirtschaft betreiben. Wir riskieren alles für nichts. Wir müssen den Etatismus abschaffen, bevor es zu spät ist. \n\n§RWenn wir unser Wirtschaftsrecht erneut verbessern, ohne den Etatismus abzuschaffen, lösen wir eine Depression aus!§!</t>
+    <t xml:space="preserve">Unsere Wirtschaft war einzigartig in der Welt. Sie besaß Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Wir waren fahrlässig und gierig, und wir riskieren es, die Wirtschaft unseres Landes zu zerstören, indem wir an einem etatistischen Modell festhalten und gleichzeitig eine Kriegswirtschaft betreiben. Wir riskieren alles für nichts. Wir müssen den Etatismus abschaffen, bevor es zu spät ist. \n\n§R§R Wenn wir unser Wirtschaftsrecht erneut verbessern, ohne den Etatismus abzuschaffen, lösen wir eine Depression aus! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_economic_collapse:</t>
@@ -2725,37 +2725,37 @@
     <t xml:space="preserve"> TUR_debt_council_has_no_sway_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der §YSchuldenrat§! hat keinen Einfluss auf [ROOT.GetAdjective]e Wirtschaftsangelegenheiten.</t>
+    <t xml:space="preserve">Der §Y§Y Schuldenrat §!§!  hat keinen Einfluss auf [ROOT.GetAdjective]e Wirtschaftsangelegenheiten.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_a_monopoly_has_been_formed_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YKeçi Ticaret§! hat ein Monopol über die aufstrebende industrielle Basis von [ROOT.GetNameDef] erhalten.</t>
+    <t xml:space="preserve">§Y§Y Keçi Ticaret §!§!  hat ein Monopol über die aufstrebende industrielle Basis von [ROOT.GetNameDef] erhalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_can_only_have_one_prime_minister_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Regierung kann nur einen §YPremierminister haben§!.</t>
+    <t xml:space="preserve">Die Regierung kann nur einen §Y§Y Premierminister haben §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ottoman_officers_invited_back:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §Yosmanischen Loyalisten§! wurden eingeladen, wieder in den aktiven Dienst zurückzukehren.</t>
+    <t xml:space="preserve">Die §Y§Y osmanischen Loyalisten §!§!  wurden eingeladen, wieder in den aktiven Dienst zurückzukehren.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_cannot_form_kurdish_collaboration_government_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[TUR.GetNameDef]§! kann niemals eine kurdische Kollaborationsregierung bilden.</t>
+    <t xml:space="preserve">§Y§Y [TUR.GetNameDef] §!§!  kann niemals eine kurdische Kollaborationsregierung bilden.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_has_a_prime_minister_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[TUR.GetNameDef]§! hat einen Premierminister.</t>
+    <t xml:space="preserve">§Y§Y [TUR.GetNameDef] §!§!  hat einen Premierminister.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_army_restrictions:</t>
@@ -2773,7 +2773,7 @@
     <t xml:space="preserve"> BUL_army_restrictions_mobilization_law_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKann Wehrpflichtrecht nicht verschärfen und keine Kriege erklären.\nKann keine Einheiten ausbilden oder auflösen oder Einheitenvorlagen bearbeiten.\nKann keine Panzer, Flugzeuge oder Schiffe produzieren.§!</t>
+    <t xml:space="preserve">§R§R Kann Wehrpflichtrecht nicht verschärfen und keine Kriege erklären.\nKann keine Einheiten ausbilden oder auflösen oder Einheitenvorlagen bearbeiten.\nKann keine Panzer, Flugzeuge oder Schiffe produzieren. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_second_national_catastrophe:</t>
@@ -2791,7 +2791,7 @@
     <t xml:space="preserve"> BUL_second_national_catastrophe_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wird entfernt, wenn Großbulgarien wiederhergestellt wird:\nHat die volle Kontrolle über §YSofia§!, §YPlowdiw§!, §YMoesia§!, §YBurgas§!, §YSüdserbien§!, §YMazedonien§!, §YZentralmakedonien§!, §YThrakien§!, §YDobrudscha§!.</t>
+    <t xml:space="preserve">Wird entfernt, wenn Großbulgarien wiederhergestellt wird:\nHat die volle Kontrolle über §Y§Y Sofia §!§! , §Y§Y Plowdiw §!§! , §Y§Y Moesia §!§! , §Y§Y Burgas §!§! , §Y§Y Südserbien §!§! , §Y§Y Mazedonien §!§! , §Y§Y Zentralmakedonien §!§! , §Y§Y Thrakien §!§! , §Y§Y Dobrudscha §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_imro_01:</t>
@@ -3136,7 +3136,7 @@
     <t xml:space="preserve"> BUL_anti_capitalism_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Angriffsbonus gegen §Ygroße Demokratien in Europa§!: §G10.0%§!, Verteidigungsbonus gegen §Ygroße Demokratien in Europa§!: §G10.0%§!</t>
+    <t xml:space="preserve">Angriffsbonus gegen §Y§Y große Demokratien in Europa §!§! : §G§G 10.0% §!§! , Verteidigungsbonus gegen §Y§Y große Demokratien in Europa §!§! : §G§G 10.0% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_balkans_united:</t>
@@ -3304,43 +3304,43 @@
     <t xml:space="preserve"> BUL_foreign_industrial_concern_requirements_ger_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [GER.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut.</t>
+    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [GER.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_industrial_concern_requirements_eng_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [ENG.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut.</t>
+    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [ENG.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_industrial_concern_requirements_sov_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [SOV.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut.</t>
+    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [SOV.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_industrial_concern_requirements_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [THIS.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut.</t>
+    <t xml:space="preserve">Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [THIS.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_national_industrial_concern_upgrade_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YIndustrielle Optimierung§! abgeschlossen wird.</t>
+    <t xml:space="preserve">\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Industrielle Optimierung §!§!  abgeschlossen wird.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_national_naval_designer_upgrade_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YEine Ägäisflotte§! abgeschlossen wird.\n</t>
+    <t xml:space="preserve">\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Eine Ägäisflotte §!§!  abgeschlossen wird.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_national_military_designer_upgrade_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YPreußen des Balkans§! abgeschlossen wird.\n</t>
+    <t xml:space="preserve">\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Preußen des Balkans §!§!  abgeschlossen wird.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_back_from_the_scw_flag:</t>
@@ -3352,7 +3352,7 @@
     <t xml:space="preserve"> BUL_toppling_giants_ns_target_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Angriffsbonus gegen große europäische Länder, die an Bulgarien grenzen: §G10.0%§!, Veteidigungsbonus gegen wichtige europäische Länder, die an Bulgarien grenzen: §G10.0%§!</t>
+    <t xml:space="preserve">Angriffsbonus gegen große europäische Länder, die an Bulgarien grenzen: §G§G 10.0% §!§! , Veteidigungsbonus gegen wichtige europäische Länder, die an Bulgarien grenzen: §G§G 10.0% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_our_duty_in_the_balkans_dynamic_modifier:</t>
@@ -3388,7 +3388,7 @@
     <t xml:space="preserve"> BUL_the_fight_against_bolshevism_ns_target_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Angriffsbonus gegen §Ygroße kommunistische Länder in Europa§!: §G10.0%§!, Verteidigungsbonus gegen §Ygroße kommunistische Länder in Europa§!: §G10.0%§!</t>
+    <t xml:space="preserve">Angriffsbonus gegen §Y§Y große kommunistische Länder in Europa §!§! : §G§G 10.0% §!§! , Verteidigungsbonus gegen §Y§Y große kommunistische Länder in Europa §!§! : §G§G 10.0% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bulgarian_capital_injection:</t>
@@ -3624,8 +3624,8 @@
   </sheetPr>
   <dimension ref="A1:D638"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D638" activeCellId="0" sqref="D1:D638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4169,11 +4169,11 @@
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> GRE_political_instability_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Die Menschen haben genug und sind bereit für Stabilität in ihrer Regierung. Sie sind aber auch skeptisch, was die langfristigen Überlebenschancen einer wie auch immer gearteten Regierung angeht. Wir müssen sie überzeugen, dass ihre Skepsis nicht angebracht ist. Wir müssen den ständigen Streitigkeiten ein Ende setzen, indem wir unsere politischen Gegner spuren lassen."</v>
+        <v> GRE_political_instability_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Die Menschen haben genug und sind bereit für Stabilität in ihrer Regierung. Sie sind aber auch skeptisch, was die langfristigen Überlebenschancen einer wie auch immer gearteten Regierung angeht. Wir müssen sie überzeugen, dass ihre Skepsis nicht angebracht ist. Wir müssen den ständigen Streitigkeiten ein Ende setzen, indem wir unsere politischen Gegner spuren lassen."</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> GRE_political_instability_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Die Menschen haben genug und sind bereit für Stabilität in ihrer Regierung. Sie sind aber auch skeptisch, was die langfristigen Überlebenschancen einer wie auch immer gearteten Regierung angeht. Wir müssen sie überzeugen, dass ihre Skepsis nicht angebracht ist. Wir müssen den ständigen Streitigkeiten ein Ende setzen, indem wir unsere politischen Gegner spuren lassen."</v>
+        <v> GRE_political_instability_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Die Menschen haben genug und sind bereit für Stabilität in ihrer Regierung. Sie sind aber auch skeptisch, was die langfristigen Überlebenschancen einer wie auch immer gearteten Regierung angeht. Wir müssen sie überzeugen, dass ihre Skepsis nicht angebracht ist. Wir müssen den ständigen Streitigkeiten ein Ende setzen, indem wir unsere politischen Gegner spuren lassen."</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,11 +4217,11 @@
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> GRE_political_instability_republican_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Leider ist die Erinnerung an die Kleinasiatische Katastrophe noch sehr präsent in den Köpfen des griechischen Volks, und sie haben auch nicht vergessen, welche Rolle wir dabei gespielt haben."</v>
+        <v> GRE_political_instability_republican_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Leider ist die Erinnerung an die Kleinasiatische Katastrophe noch sehr präsent in den Köpfen des griechischen Volks, und sie haben auch nicht vergessen, welche Rolle wir dabei gespielt haben."</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> GRE_political_instability_republican_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Leider ist die Erinnerung an die Kleinasiatische Katastrophe noch sehr präsent in den Köpfen des griechischen Volks, und sie haben auch nicht vergessen, welche Rolle wir dabei gespielt haben."</v>
+        <v> GRE_political_instability_republican_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Leider ist die Erinnerung an die Kleinasiatische Katastrophe noch sehr präsent in den Köpfen des griechischen Volks, und sie haben auch nicht vergessen, welche Rolle wir dabei gespielt haben."</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> GRE_political_instability_republican_2_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Es liegt nun an uns, unserem Vermächtnis gerecht zu werden und die Reise zu beenden, die Griechenland 1919 begonnen hat, als wir versucht haben, Konstantinopel zurückzuerobern ..."</v>
+        <v> GRE_political_instability_republican_2_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Es liegt nun an uns, unserem Vermächtnis gerecht zu werden und die Reise zu beenden, die Griechenland 1919 begonnen hat, als wir versucht haben, Konstantinopel zurückzuerobern ..."</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> GRE_political_instability_republican_2_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Es liegt nun an uns, unserem Vermächtnis gerecht zu werden und die Reise zu beenden, die Griechenland 1919 begonnen hat, als wir versucht haben, Konstantinopel zurückzuerobern ..."</v>
+        <v> GRE_political_instability_republican_2_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Wir, die Venizelisten, können nicht leugnen, dass wir vielleicht auch ein ... klein wenig dazu beigetragen haben. Zumindest kennen die Menschen uns! Und von zwei Übeln wählt man besser das, das man kennt! Es liegt nun an uns, unserem Vermächtnis gerecht zu werden und die Reise zu beenden, die Griechenland 1919 begonnen hat, als wir versucht haben, Konstantinopel zurückzuerobern ..."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,11 +4281,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> GRE_political_instability_communist_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Zum ersten Mal seit sehr langer Zeit gibt es in Griechenland endlich eine Bewegung, das die Kontrolle über die Nation in die Hände des griechischen Volks legen möchte. Aber unsere Bewegung ist noch jung, und wir müssen uns noch beweisen, ehe die Menschen wirklich auf unsere Herrschaft vertrauen."</v>
+        <v> GRE_political_instability_communist_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Zum ersten Mal seit sehr langer Zeit gibt es in Griechenland endlich eine Bewegung, das die Kontrolle über die Nation in die Hände des griechischen Volks legen möchte. Aber unsere Bewegung ist noch jung, und wir müssen uns noch beweisen, ehe die Menschen wirklich auf unsere Herrschaft vertrauen."</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> GRE_political_instability_communist_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Zum ersten Mal seit sehr langer Zeit gibt es in Griechenland endlich eine Bewegung, das die Kontrolle über die Nation in die Hände des griechischen Volks legen möchte. Aber unsere Bewegung ist noch jung, und wir müssen uns noch beweisen, ehe die Menschen wirklich auf unsere Herrschaft vertrauen."</v>
+        <v> GRE_political_instability_communist_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Zum ersten Mal seit sehr langer Zeit gibt es in Griechenland endlich eine Bewegung, das die Kontrolle über die Nation in die Hände des griechischen Volks legen möchte. Aber unsere Bewegung ist noch jung, und wir müssen uns noch beweisen, ehe die Menschen wirklich auf unsere Herrschaft vertrauen."</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,11 +4313,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> GRE_political_instability_metaxas_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Unter der Führung von Metaxas werden wir Einheit durch Stärke erlangen, indem wir alle unsere Feinde vernichten! Das griechische Volk wird noch lernen, wie eine Regierung agiert, die den Willen hat, in diesem gesetzlosen Land für Ordnung zu sorgen."</v>
+        <v> GRE_political_instability_metaxas_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Unter der Führung von Metaxas werden wir Einheit durch Stärke erlangen, indem wir alle unsere Feinde vernichten! Das griechische Volk wird noch lernen, wie eine Regierung agiert, die den Willen hat, in diesem gesetzlosen Land für Ordnung zu sorgen."</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> GRE_political_instability_metaxas_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Unter der Führung von Metaxas werden wir Einheit durch Stärke erlangen, indem wir alle unsere Feinde vernichten! Das griechische Volk wird noch lernen, wie eine Regierung agiert, die den Willen hat, in diesem gesetzlosen Land für Ordnung zu sorgen."</v>
+        <v> GRE_political_instability_metaxas_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Unter der Führung von Metaxas werden wir Einheit durch Stärke erlangen, indem wir alle unsere Feinde vernichten! Das griechische Volk wird noch lernen, wie eine Regierung agiert, die den Willen hat, in diesem gesetzlosen Land für Ordnung zu sorgen."</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,11 +4345,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> GRE_political_instability_fascism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Der Faschismus stellt die Einheit über alles andere. Wenn wir das griechische Volk nicht effektiv mobilisieren können und ihm nicht helfen können zu erkennen, dass der Faschismus die offensichtliche Antwort auf Griechenlands Sorgen ist, dann haben wir es nicht verdient zu herrschen."</v>
+        <v> GRE_political_instability_fascism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Der Faschismus stellt die Einheit über alles andere. Wenn wir das griechische Volk nicht effektiv mobilisieren können und ihm nicht helfen können zu erkennen, dass der Faschismus die offensichtliche Antwort auf Griechenlands Sorgen ist, dann haben wir es nicht verdient zu herrschen."</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> GRE_political_instability_fascism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Der Faschismus stellt die Einheit über alles andere. Wenn wir das griechische Volk nicht effektiv mobilisieren können und ihm nicht helfen können zu erkennen, dass der Faschismus die offensichtliche Antwort auf Griechenlands Sorgen ist, dann haben wir es nicht verdient zu herrschen."</v>
+        <v> GRE_political_instability_fascism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects] \n\nZwischen 1924 und 1935 gab es dreiundzwanzig Regierungswechsel, dreizehn Coups und eine Diktatur! Der Faschismus stellt die Einheit über alles andere. Wenn wir das griechische Volk nicht effektiv mobilisieren können und ihm nicht helfen können zu erkennen, dass der Faschismus die offensichtliche Antwort auf Griechenlands Sorgen ist, dann haben wir es nicht verdient zu herrschen."</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> GRE_state_of_the_nation_monarchism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_monarchism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> GRE_state_of_the_nation_monarchism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_monarchism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,11 +4409,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> GRE_state_of_the_nation_metaxism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_metaxism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> GRE_state_of_the_nation_metaxism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_metaxism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,11 +4441,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> GRE_state_of_the_nation_republican_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_republican_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> GRE_state_of_the_nation_republican_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_republican_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,11 +4473,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> GRE_state_of_the_nation_communism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_communism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> GRE_state_of_the_nation_communism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_communism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,11 +4505,11 @@
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> GRE_state_of_the_nation_fascism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_fascism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> GRE_state_of_the_nation_fascism_desc: "§WDie £faction_gre_monarchist §YMonarchisten§! sind [Root.GetMonarchistLoyaltyLevel].§! [ROOT.GetMonarchistLoyaltyEffects] \n\n§WDie £faction_gre_venezelist §YRepublikaner§! sind [Root.GetRepublicanLoyaltyLevel].§! [ROOT.GetRepublicanLoyaltyEffects] \n\n§WDie £faction_gre_communist §YKommunisten§! sind [Root.GetCommunistLoyaltyLevel].§! [ROOT.GetCommunistLoyaltyEffects] \n\n§WDie £faction_gre_fascist §YFaschisten§! sind [Root.GetFascistLoyaltyLevel].§! [ROOT.GetFascistLoyaltyEffects]"</v>
+        <v> GRE_state_of_the_nation_fascism_desc: "§W§W Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind [Root.GetMonarchistLoyaltyLevel]. §!§!  [ROOT.GetMonarchistLoyaltyEffects] \n\n§W§W Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind [Root.GetRepublicanLoyaltyLevel]. §!§!  [ROOT.GetRepublicanLoyaltyEffects] \n\n§W§W Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind [Root.GetCommunistLoyaltyLevel]. §!§!  [ROOT.GetCommunistLoyaltyEffects] \n\n§W§W Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind [Root.GetFascistLoyaltyLevel]. §!§!  [ROOT.GetFascistLoyaltyEffects]"</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> GRE_monarchists_friendly_or_loyal: "Die £faction_gre_monarchist §YMonarchisten§! sind freundlich oder loyal."</v>
+        <v> GRE_monarchists_friendly_or_loyal: "Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind freundlich oder loyal."</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> GRE_monarchists_friendly_or_loyal: "Die £faction_gre_monarchist §YMonarchisten§! sind freundlich oder loyal."</v>
+        <v> GRE_monarchists_friendly_or_loyal: "Die £faction_gre_monarchist §Y§Y Monarchisten §!§!  sind freundlich oder loyal."</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,11 +4745,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> GRE_republicans_friendly_or_loyal: "Die £faction_gre_venezelist §YRepublikaner§! sind freundlich oder loyal."</v>
+        <v> GRE_republicans_friendly_or_loyal: "Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind freundlich oder loyal."</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> GRE_republicans_friendly_or_loyal: "Die £faction_gre_venezelist §YRepublikaner§! sind freundlich oder loyal."</v>
+        <v> GRE_republicans_friendly_or_loyal: "Die £faction_gre_venezelist §Y§Y Republikaner §!§!  sind freundlich oder loyal."</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,11 +4761,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> GRE_communists_friendly_or_loyal: "Die £faction_gre_communist §YKommunisten§! sind freundlich oder loyal."</v>
+        <v> GRE_communists_friendly_or_loyal: "Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind freundlich oder loyal."</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> GRE_communists_friendly_or_loyal: "Die £faction_gre_communist §YKommunisten§! sind freundlich oder loyal."</v>
+        <v> GRE_communists_friendly_or_loyal: "Die £faction_gre_communist §Y§Y Kommunisten §!§!  sind freundlich oder loyal."</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,11 +4777,11 @@
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> GRE_fascists_friendly_or_loyal: "Die £faction_gre_fascist §YFaschisten§! sind freundlich oder loyal."</v>
+        <v> GRE_fascists_friendly_or_loyal: "Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind freundlich oder loyal."</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> GRE_fascists_friendly_or_loyal: "Die £faction_gre_fascist §YFaschisten§! sind freundlich oder loyal."</v>
+        <v> GRE_fascists_friendly_or_loyal: "Die £faction_gre_fascist §Y§Y Faschisten §!§!  sind freundlich oder loyal."</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,11 +6585,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> onassis_proposition_accepted: "§YAristoteles Onassis§! hat seine anti-faschistische Organisation gegründet."</v>
+        <v> onassis_proposition_accepted: "§Y§Y Aristoteles Onassis §!§!  hat seine anti-faschistische Organisation gegründet."</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> onassis_proposition_accepted: "§YAristoteles Onassis§! hat seine anti-faschistische Organisation gegründet."</v>
+        <v> onassis_proposition_accepted: "§Y§Y Aristoteles Onassis §!§!  hat seine anti-faschistische Organisation gegründet."</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> GRE_metaxas_is_dead_crab_rave_flag: "§YIoannis Metaxas§! ist gestorben."</v>
+        <v> GRE_metaxas_is_dead_crab_rave_flag: "§Y§Y Ioannis Metaxas §!§!  ist gestorben."</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> GRE_metaxas_is_dead_crab_rave_flag: "§YIoannis Metaxas§! ist gestorben."</v>
+        <v> GRE_metaxas_is_dead_crab_rave_flag: "§Y§Y Ioannis Metaxas §!§!  ist gestorben."</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,11 +7049,11 @@
       </c>
       <c r="C214" s="1" t="str">
         <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v> GRE_nation_is_monarchy_tt: "Hat die Idee §YGeorg. II§!"</v>
+        <v> GRE_nation_is_monarchy_tt: "Hat die Idee §Y§Y Georg. II §!§! "</v>
       </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
-        <v> GRE_nation_is_monarchy_tt: "Hat die Idee §YGeorg. II§!"</v>
+        <v> GRE_nation_is_monarchy_tt: "Hat die Idee §Y§Y Georg. II §!§! "</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,11 +8777,11 @@
       </c>
       <c r="C322" s="1" t="str">
         <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v> TUR_sectarian_woes_desc: "§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus entschieden ab. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
+        <v> TUR_sectarian_woes_desc: "§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus entschieden ab. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
       </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
-        <v> TUR_sectarian_woes_desc: "§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus entschieden ab. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
+        <v> TUR_sectarian_woes_desc: "§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus entschieden ab. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,11 +8809,11 @@
       </c>
       <c r="C324" s="1" t="str">
         <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v> TUR_sectarian_woes_1_desc: "§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus noch immer entschieden ab. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
+        <v> TUR_sectarian_woes_1_desc: "§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus noch immer entschieden ab. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
       </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
-        <v> TUR_sectarian_woes_1_desc: "§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus noch immer entschieden ab. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
+        <v> TUR_sectarian_woes_1_desc: "§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Die Kemalisten hoffen, die Türkei wieder zu einem säkularen Staat zu machen, doch ein großer Anteil der Bevölkerung lehnt das Konzept des Säkularismus noch immer entschieden ab. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,11 +8841,11 @@
       </c>
       <c r="C326" s="1" t="str">
         <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v> TUR_sectarian_woes_desc_2: "§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
+        <v> TUR_sectarian_woes_desc_2: "§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
       </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
-        <v> TUR_sectarian_woes_desc_2: "§WDie internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über§! §YStaatsmodifikatoren§!§W: die§! £faction_tur_kemalist §YKemalisten§! §Wsind im Westen und Norden zu finden, die religiösen§! £faction_tur_traditionalist §YTraditionalisten§! §Wsind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die§! £faction_tur_kurdish §YKurden§! §Wsind im Südosten der Nation zu finden.§! \n\n§WInteraktionen mit den verschiedenen§! §YFraktionen§! §Wsind möglich über den§! §YTab Entscheidungen§!§W sowie über einige§! §YSchwerpunkteffekte§! §Wund§! §YEreignisoptionen§!§W.§!  \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
+        <v> TUR_sectarian_woes_desc_2: "§W§W Die internen Spaltungen in der [TUR.GetNameDefCap] werden geografisch dargestellt über §!§!  §Y§Y Staatsmodifikatoren §!§! §W§W : die §!§!  £faction_tur_kemalist §Y§Y Kemalisten §!§!  §W§W sind im Westen und Norden zu finden, die religiösen §!§!  £faction_tur_traditionalist §Y§Y Traditionalisten §!§!  §W§W sind im Hinterland in der Mitte des Landes sowie im Süden zu finden, und die §!§!  £faction_tur_kurdish §Y§Y Kurden §!§!  §W§W sind im Südosten der Nation zu finden. §!§!  \n\n§W§W Interaktionen mit den verschiedenen §!§!  §Y§Y Fraktionen §!§!  §W§W sind möglich über den §!§!  §Y§Y Tab Entscheidungen §!§! §W§W  sowie über einige §!§!  §Y§Y Schwerpunkteffekte §!§!  §W§W und §!§!  §Y§Y Ereignisoptionen §!§! §W§W . §!§!   \n\nDie Türkei leidet unter internen Spaltungen, die entlang ideologischer, religiöser und ethnischer Grenzen verlaufen. Im Osten hat die kurdische Bevölkerung der türkischen Regierung großen Ärger bereitet und scheint gewillt zu sein, zu rebellieren, statt sich zu integrieren. Um die innere Zerrissenheit unseres Landes zu beheben, müssen wir diese Probleme entweder mit sanfter Hand oder mit eiserner Faust angehen."</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8969,11 +8969,11 @@
       </c>
       <c r="C334" s="1" t="str">
         <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v> TUR_etatism_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen Spannungen entstehen.§!"</v>
+        <v> TUR_etatism_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen Spannungen entstehen. §!§! "</v>
       </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
-        <v> TUR_etatism_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen Spannungen entstehen.§!"</v>
+        <v> TUR_etatism_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen Spannungen entstehen. §!§! "</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9001,11 +9001,11 @@
       </c>
       <c r="C336" s="1" t="str">
         <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v> TUR_etatism_2_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir dürfen sie nicht zu sehr beanspruchen, indem wir versuchen, gleichzeitig eine Kriegswirtschaft zu betreiben. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen.§!"</v>
+        <v> TUR_etatism_2_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir dürfen sie nicht zu sehr beanspruchen, indem wir versuchen, gleichzeitig eine Kriegswirtschaft zu betreiben. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen. §!§! "</v>
       </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
-        <v> TUR_etatism_2_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir dürfen sie nicht zu sehr beanspruchen, indem wir versuchen, gleichzeitig eine Kriegswirtschaft zu betreiben. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen.§!"</v>
+        <v> TUR_etatism_2_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir dürfen sie nicht zu sehr beanspruchen, indem wir versuchen, gleichzeitig eine Kriegswirtschaft zu betreiben. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen. §!§! "</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="C338" s="1" t="str">
         <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v> TUR_etatism_3_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir haben sie stark beansprucht, indem wir versucht haben, gleichzeitig eine Kriegswirtschaft zu betreiben. Wir müssen die Lage vielleicht neu bewerten und das etatistische Experiment beenden. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen.§!"</v>
+        <v> TUR_etatism_3_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir haben sie stark beansprucht, indem wir versucht haben, gleichzeitig eine Kriegswirtschaft zu betreiben. Wir müssen die Lage vielleicht neu bewerten und das etatistische Experiment beenden. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen. §!§! "</v>
       </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
-        <v> TUR_etatism_3_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir haben sie stark beansprucht, indem wir versucht haben, gleichzeitig eine Kriegswirtschaft zu betreiben. Wir müssen die Lage vielleicht neu bewerten und das etatistische Experiment beenden. \n\n§RWenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen.§!"</v>
+        <v> TUR_etatism_3_desc: "Unsere gelenkte Volkswirtschaft ist einzigartig in der Welt. Sie besitzt Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Sie ist die ultimative Synthese der verschiedenen Wirtschaftsmodelle, und ein Kronjuwel des kemalistischen Systems, aber wir haben sie stark beansprucht, indem wir versucht haben, gleichzeitig eine Kriegswirtschaft zu betreiben. Wir müssen die Lage vielleicht neu bewerten und das etatistische Experiment beenden. \n\n§R§R Wenn wir unser Wirtschaftsrecht verbessern, sollten wir darauf vorbereitet sein, dass zwischen unseren inkompatiblen Wirtschaftsmodellen zusätzliche Spannungen entstehen. §!§! "</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9065,11 +9065,11 @@
       </c>
       <c r="C340" s="1" t="str">
         <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v> TUR_etatism_4_desc: "Unsere Wirtschaft war einzigartig in der Welt. Sie besaß Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Wir waren fahrlässig und gierig, und wir riskieren es, die Wirtschaft unseres Landes zu zerstören, indem wir an einem etatistischen Modell festhalten und gleichzeitig eine Kriegswirtschaft betreiben. Wir riskieren alles für nichts. Wir müssen den Etatismus abschaffen, bevor es zu spät ist. \n\n§RWenn wir unser Wirtschaftsrecht erneut verbessern, ohne den Etatismus abzuschaffen, lösen wir eine Depression aus!§!"</v>
+        <v> TUR_etatism_4_desc: "Unsere Wirtschaft war einzigartig in der Welt. Sie besaß Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Wir waren fahrlässig und gierig, und wir riskieren es, die Wirtschaft unseres Landes zu zerstören, indem wir an einem etatistischen Modell festhalten und gleichzeitig eine Kriegswirtschaft betreiben. Wir riskieren alles für nichts. Wir müssen den Etatismus abschaffen, bevor es zu spät ist. \n\n§R§R Wenn wir unser Wirtschaftsrecht erneut verbessern, ohne den Etatismus abzuschaffen, lösen wir eine Depression aus! §!§! "</v>
       </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
-        <v> TUR_etatism_4_desc: "Unsere Wirtschaft war einzigartig in der Welt. Sie besaß Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Wir waren fahrlässig und gierig, und wir riskieren es, die Wirtschaft unseres Landes zu zerstören, indem wir an einem etatistischen Modell festhalten und gleichzeitig eine Kriegswirtschaft betreiben. Wir riskieren alles für nichts. Wir müssen den Etatismus abschaffen, bevor es zu spät ist. \n\n§RWenn wir unser Wirtschaftsrecht erneut verbessern, ohne den Etatismus abzuschaffen, lösen wir eine Depression aus!§!"</v>
+        <v> TUR_etatism_4_desc: "Unsere Wirtschaft war einzigartig in der Welt. Sie besaß Züge des britischen Liberalismus, des italienischen Korporatismus und der sowjetischen Planwirtschaft. Wir waren fahrlässig und gierig, und wir riskieren es, die Wirtschaft unseres Landes zu zerstören, indem wir an einem etatistischen Modell festhalten und gleichzeitig eine Kriegswirtschaft betreiben. Wir riskieren alles für nichts. Wir müssen den Etatismus abschaffen, bevor es zu spät ist. \n\n§R§R Wenn wir unser Wirtschaftsrecht erneut verbessern, ohne den Etatismus abzuschaffen, lösen wir eine Depression aus! §!§! "</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11993,11 +11993,11 @@
       </c>
       <c r="C523" s="1" t="str">
         <f aca="false">A523 &amp;" " &amp;"""" &amp;B523 &amp;""""</f>
-        <v> TUR_debt_council_has_no_sway_tt: "Der §YSchuldenrat§! hat keinen Einfluss auf [ROOT.GetAdjective]e Wirtschaftsangelegenheiten."</v>
+        <v> TUR_debt_council_has_no_sway_tt: "Der §Y§Y Schuldenrat §!§!  hat keinen Einfluss auf [ROOT.GetAdjective]e Wirtschaftsangelegenheiten."</v>
       </c>
       <c r="D523" s="1" t="str">
         <f aca="false">IF(ISBLANK(A523),"",C523)</f>
-        <v> TUR_debt_council_has_no_sway_tt: "Der §YSchuldenrat§! hat keinen Einfluss auf [ROOT.GetAdjective]e Wirtschaftsangelegenheiten."</v>
+        <v> TUR_debt_council_has_no_sway_tt: "Der §Y§Y Schuldenrat §!§!  hat keinen Einfluss auf [ROOT.GetAdjective]e Wirtschaftsangelegenheiten."</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12009,11 +12009,11 @@
       </c>
       <c r="C524" s="1" t="str">
         <f aca="false">A524 &amp;" " &amp;"""" &amp;B524 &amp;""""</f>
-        <v> TUR_a_monopoly_has_been_formed_tt: "§YKeçi Ticaret§! hat ein Monopol über die aufstrebende industrielle Basis von [ROOT.GetNameDef] erhalten."</v>
+        <v> TUR_a_monopoly_has_been_formed_tt: "§Y§Y Keçi Ticaret §!§!  hat ein Monopol über die aufstrebende industrielle Basis von [ROOT.GetNameDef] erhalten."</v>
       </c>
       <c r="D524" s="1" t="str">
         <f aca="false">IF(ISBLANK(A524),"",C524)</f>
-        <v> TUR_a_monopoly_has_been_formed_tt: "§YKeçi Ticaret§! hat ein Monopol über die aufstrebende industrielle Basis von [ROOT.GetNameDef] erhalten."</v>
+        <v> TUR_a_monopoly_has_been_formed_tt: "§Y§Y Keçi Ticaret §!§!  hat ein Monopol über die aufstrebende industrielle Basis von [ROOT.GetNameDef] erhalten."</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12025,11 +12025,11 @@
       </c>
       <c r="C525" s="1" t="str">
         <f aca="false">A525 &amp;" " &amp;"""" &amp;B525 &amp;""""</f>
-        <v> TUR_can_only_have_one_prime_minister_tt: "Die Regierung kann nur einen §YPremierminister haben§!."</v>
+        <v> TUR_can_only_have_one_prime_minister_tt: "Die Regierung kann nur einen §Y§Y Premierminister haben §!§! ."</v>
       </c>
       <c r="D525" s="1" t="str">
         <f aca="false">IF(ISBLANK(A525),"",C525)</f>
-        <v> TUR_can_only_have_one_prime_minister_tt: "Die Regierung kann nur einen §YPremierminister haben§!."</v>
+        <v> TUR_can_only_have_one_prime_minister_tt: "Die Regierung kann nur einen §Y§Y Premierminister haben §!§! ."</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12041,11 +12041,11 @@
       </c>
       <c r="C526" s="1" t="str">
         <f aca="false">A526 &amp;" " &amp;"""" &amp;B526 &amp;""""</f>
-        <v> TUR_ottoman_officers_invited_back: "Die §Yosmanischen Loyalisten§! wurden eingeladen, wieder in den aktiven Dienst zurückzukehren."</v>
+        <v> TUR_ottoman_officers_invited_back: "Die §Y§Y osmanischen Loyalisten §!§!  wurden eingeladen, wieder in den aktiven Dienst zurückzukehren."</v>
       </c>
       <c r="D526" s="1" t="str">
         <f aca="false">IF(ISBLANK(A526),"",C526)</f>
-        <v> TUR_ottoman_officers_invited_back: "Die §Yosmanischen Loyalisten§! wurden eingeladen, wieder in den aktiven Dienst zurückzukehren."</v>
+        <v> TUR_ottoman_officers_invited_back: "Die §Y§Y osmanischen Loyalisten §!§!  wurden eingeladen, wieder in den aktiven Dienst zurückzukehren."</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12057,11 +12057,11 @@
       </c>
       <c r="C527" s="1" t="str">
         <f aca="false">A527 &amp;" " &amp;"""" &amp;B527 &amp;""""</f>
-        <v> TUR_cannot_form_kurdish_collaboration_government_tt: "§Y[TUR.GetNameDef]§! kann niemals eine kurdische Kollaborationsregierung bilden."</v>
+        <v> TUR_cannot_form_kurdish_collaboration_government_tt: "§Y§Y [TUR.GetNameDef] §!§!  kann niemals eine kurdische Kollaborationsregierung bilden."</v>
       </c>
       <c r="D527" s="1" t="str">
         <f aca="false">IF(ISBLANK(A527),"",C527)</f>
-        <v> TUR_cannot_form_kurdish_collaboration_government_tt: "§Y[TUR.GetNameDef]§! kann niemals eine kurdische Kollaborationsregierung bilden."</v>
+        <v> TUR_cannot_form_kurdish_collaboration_government_tt: "§Y§Y [TUR.GetNameDef] §!§!  kann niemals eine kurdische Kollaborationsregierung bilden."</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12073,11 +12073,11 @@
       </c>
       <c r="C528" s="1" t="str">
         <f aca="false">A528 &amp;" " &amp;"""" &amp;B528 &amp;""""</f>
-        <v> TUR_has_a_prime_minister_tt: "§Y[TUR.GetNameDef]§! hat einen Premierminister."</v>
+        <v> TUR_has_a_prime_minister_tt: "§Y§Y [TUR.GetNameDef] §!§!  hat einen Premierminister."</v>
       </c>
       <c r="D528" s="1" t="str">
         <f aca="false">IF(ISBLANK(A528),"",C528)</f>
-        <v> TUR_has_a_prime_minister_tt: "§Y[TUR.GetNameDef]§! hat einen Premierminister."</v>
+        <v> TUR_has_a_prime_minister_tt: "§Y§Y [TUR.GetNameDef] §!§!  hat einen Premierminister."</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12121,11 +12121,11 @@
       </c>
       <c r="C531" s="1" t="str">
         <f aca="false">A531 &amp;" " &amp;"""" &amp;B531 &amp;""""</f>
-        <v> BUL_army_restrictions_mobilization_law_tt: "§RKann Wehrpflichtrecht nicht verschärfen und keine Kriege erklären.\nKann keine Einheiten ausbilden oder auflösen oder Einheitenvorlagen bearbeiten.\nKann keine Panzer, Flugzeuge oder Schiffe produzieren.§!"</v>
+        <v> BUL_army_restrictions_mobilization_law_tt: "§R§R Kann Wehrpflichtrecht nicht verschärfen und keine Kriege erklären.\nKann keine Einheiten ausbilden oder auflösen oder Einheitenvorlagen bearbeiten.\nKann keine Panzer, Flugzeuge oder Schiffe produzieren. §!§! "</v>
       </c>
       <c r="D531" s="1" t="str">
         <f aca="false">IF(ISBLANK(A531),"",C531)</f>
-        <v> BUL_army_restrictions_mobilization_law_tt: "§RKann Wehrpflichtrecht nicht verschärfen und keine Kriege erklären.\nKann keine Einheiten ausbilden oder auflösen oder Einheitenvorlagen bearbeiten.\nKann keine Panzer, Flugzeuge oder Schiffe produzieren.§!"</v>
+        <v> BUL_army_restrictions_mobilization_law_tt: "§R§R Kann Wehrpflichtrecht nicht verschärfen und keine Kriege erklären.\nKann keine Einheiten ausbilden oder auflösen oder Einheitenvorlagen bearbeiten.\nKann keine Panzer, Flugzeuge oder Schiffe produzieren. §!§! "</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12169,11 +12169,11 @@
       </c>
       <c r="C534" s="1" t="str">
         <f aca="false">A534 &amp;" " &amp;"""" &amp;B534 &amp;""""</f>
-        <v> BUL_second_national_catastrophe_tt: "Wird entfernt, wenn Großbulgarien wiederhergestellt wird:\nHat die volle Kontrolle über §YSofia§!, §YPlowdiw§!, §YMoesia§!, §YBurgas§!, §YSüdserbien§!, §YMazedonien§!, §YZentralmakedonien§!, §YThrakien§!, §YDobrudscha§!."</v>
+        <v> BUL_second_national_catastrophe_tt: "Wird entfernt, wenn Großbulgarien wiederhergestellt wird:\nHat die volle Kontrolle über §Y§Y Sofia §!§! , §Y§Y Plowdiw §!§! , §Y§Y Moesia §!§! , §Y§Y Burgas §!§! , §Y§Y Südserbien §!§! , §Y§Y Mazedonien §!§! , §Y§Y Zentralmakedonien §!§! , §Y§Y Thrakien §!§! , §Y§Y Dobrudscha §!§! ."</v>
       </c>
       <c r="D534" s="1" t="str">
         <f aca="false">IF(ISBLANK(A534),"",C534)</f>
-        <v> BUL_second_national_catastrophe_tt: "Wird entfernt, wenn Großbulgarien wiederhergestellt wird:\nHat die volle Kontrolle über §YSofia§!, §YPlowdiw§!, §YMoesia§!, §YBurgas§!, §YSüdserbien§!, §YMazedonien§!, §YZentralmakedonien§!, §YThrakien§!, §YDobrudscha§!."</v>
+        <v> BUL_second_national_catastrophe_tt: "Wird entfernt, wenn Großbulgarien wiederhergestellt wird:\nHat die volle Kontrolle über §Y§Y Sofia §!§! , §Y§Y Plowdiw §!§! , §Y§Y Moesia §!§! , §Y§Y Burgas §!§! , §Y§Y Südserbien §!§! , §Y§Y Mazedonien §!§! , §Y§Y Zentralmakedonien §!§! , §Y§Y Thrakien §!§! , §Y§Y Dobrudscha §!§! ."</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13129,11 +13129,11 @@
       </c>
       <c r="C594" s="1" t="str">
         <f aca="false">A594 &amp;" " &amp;"""" &amp;B594 &amp;""""</f>
-        <v> BUL_anti_capitalism_tt: "Angriffsbonus gegen §Ygroße Demokratien in Europa§!: §G10.0%§!, Verteidigungsbonus gegen §Ygroße Demokratien in Europa§!: §G10.0%§!"</v>
+        <v> BUL_anti_capitalism_tt: "Angriffsbonus gegen §Y§Y große Demokratien in Europa §!§! : §G§G 10.0% §!§! , Verteidigungsbonus gegen §Y§Y große Demokratien in Europa §!§! : §G§G 10.0% §!§! "</v>
       </c>
       <c r="D594" s="1" t="str">
         <f aca="false">IF(ISBLANK(A594),"",C594)</f>
-        <v> BUL_anti_capitalism_tt: "Angriffsbonus gegen §Ygroße Demokratien in Europa§!: §G10.0%§!, Verteidigungsbonus gegen §Ygroße Demokratien in Europa§!: §G10.0%§!"</v>
+        <v> BUL_anti_capitalism_tt: "Angriffsbonus gegen §Y§Y große Demokratien in Europa §!§! : §G§G 10.0% §!§! , Verteidigungsbonus gegen §Y§Y große Demokratien in Europa §!§! : §G§G 10.0% §!§! "</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,11 +13577,11 @@
       </c>
       <c r="C622" s="1" t="str">
         <f aca="false">A622 &amp;" " &amp;"""" &amp;B622 &amp;""""</f>
-        <v> BUL_foreign_industrial_concern_requirements_ger_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [GER.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_ger_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [GER.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
       <c r="D622" s="1" t="str">
         <f aca="false">IF(ISBLANK(A622),"",C622)</f>
-        <v> BUL_foreign_industrial_concern_requirements_ger_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [GER.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_ger_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [GER.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13593,11 +13593,11 @@
       </c>
       <c r="C623" s="1" t="str">
         <f aca="false">A623 &amp;" " &amp;"""" &amp;B623 &amp;""""</f>
-        <v> BUL_foreign_industrial_concern_requirements_eng_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [ENG.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_eng_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [ENG.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
       <c r="D623" s="1" t="str">
         <f aca="false">IF(ISBLANK(A623),"",C623)</f>
-        <v> BUL_foreign_industrial_concern_requirements_eng_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [ENG.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_eng_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [ENG.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13609,11 +13609,11 @@
       </c>
       <c r="C624" s="1" t="str">
         <f aca="false">A624 &amp;" " &amp;"""" &amp;B624 &amp;""""</f>
-        <v> BUL_foreign_industrial_concern_requirements_sov_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [SOV.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_sov_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [SOV.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
       <c r="D624" s="1" t="str">
         <f aca="false">IF(ISBLANK(A624),"",C624)</f>
-        <v> BUL_foreign_industrial_concern_requirements_sov_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [SOV.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_sov_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [SOV.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13625,11 +13625,11 @@
       </c>
       <c r="C625" s="1" t="str">
         <f aca="false">A625 &amp;" " &amp;"""" &amp;B625 &amp;""""</f>
-        <v> BUL_foreign_industrial_concern_requirements_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [THIS.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [THIS.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
       <c r="D625" s="1" t="str">
         <f aca="false">IF(ISBLANK(A625),"",C625)</f>
-        <v> BUL_foreign_industrial_concern_requirements_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [THIS.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §YVerträge mit dem Ausland§! gebaut."</v>
+        <v> BUL_foreign_industrial_concern_requirements_tt: "Bulgarien hat mindestens [?BUL.BUL_industrial_investments_medium_cap|Y0] [THIS.GetAdjective]e Zivilfabriken über Entscheidungen aus dem Bereich §Y§Y Verträge mit dem Ausland §!§!  gebaut."</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13641,11 +13641,11 @@
       </c>
       <c r="C626" s="1" t="str">
         <f aca="false">A626 &amp;" " &amp;"""" &amp;B626 &amp;""""</f>
-        <v> BUL_national_industrial_concern_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YIndustrielle Optimierung§! abgeschlossen wird."</v>
+        <v> BUL_national_industrial_concern_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Industrielle Optimierung §!§!  abgeschlossen wird."</v>
       </c>
       <c r="D626" s="1" t="str">
         <f aca="false">IF(ISBLANK(A626),"",C626)</f>
-        <v> BUL_national_industrial_concern_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YIndustrielle Optimierung§! abgeschlossen wird."</v>
+        <v> BUL_national_industrial_concern_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Industrielle Optimierung §!§!  abgeschlossen wird."</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13657,11 +13657,11 @@
       </c>
       <c r="C627" s="1" t="str">
         <f aca="false">A627 &amp;" " &amp;"""" &amp;B627 &amp;""""</f>
-        <v> BUL_national_naval_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YEine Ägäisflotte§! abgeschlossen wird.\n"</v>
+        <v> BUL_national_naval_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Eine Ägäisflotte §!§!  abgeschlossen wird.\n"</v>
       </c>
       <c r="D627" s="1" t="str">
         <f aca="false">IF(ISBLANK(A627),"",C627)</f>
-        <v> BUL_national_naval_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YEine Ägäisflotte§! abgeschlossen wird.\n"</v>
+        <v> BUL_national_naval_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Eine Ägäisflotte §!§!  abgeschlossen wird.\n"</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13673,11 +13673,11 @@
       </c>
       <c r="C628" s="1" t="str">
         <f aca="false">A628 &amp;" " &amp;"""" &amp;B628 &amp;""""</f>
-        <v> BUL_national_military_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YPreußen des Balkans§! abgeschlossen wird.\n"</v>
+        <v> BUL_national_military_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Preußen des Balkans §!§!  abgeschlossen wird.\n"</v>
       </c>
       <c r="D628" s="1" t="str">
         <f aca="false">IF(ISBLANK(A628),"",C628)</f>
-        <v> BUL_national_military_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §YPreußen des Balkans§! abgeschlossen wird.\n"</v>
+        <v> BUL_national_military_designer_upgrade_tt: "\nDieser Konstrukteur wird verbessert, wenn der Schwerpunkt §Y§Y Preußen des Balkans §!§!  abgeschlossen wird.\n"</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,11 +13705,11 @@
       </c>
       <c r="C630" s="1" t="str">
         <f aca="false">A630 &amp;" " &amp;"""" &amp;B630 &amp;""""</f>
-        <v> BUL_toppling_giants_ns_target_tt: "Angriffsbonus gegen große europäische Länder, die an Bulgarien grenzen: §G10.0%§!, Veteidigungsbonus gegen wichtige europäische Länder, die an Bulgarien grenzen: §G10.0%§!"</v>
+        <v> BUL_toppling_giants_ns_target_tt: "Angriffsbonus gegen große europäische Länder, die an Bulgarien grenzen: §G§G 10.0% §!§! , Veteidigungsbonus gegen wichtige europäische Länder, die an Bulgarien grenzen: §G§G 10.0% §!§! "</v>
       </c>
       <c r="D630" s="1" t="str">
         <f aca="false">IF(ISBLANK(A630),"",C630)</f>
-        <v> BUL_toppling_giants_ns_target_tt: "Angriffsbonus gegen große europäische Länder, die an Bulgarien grenzen: §G10.0%§!, Veteidigungsbonus gegen wichtige europäische Länder, die an Bulgarien grenzen: §G10.0%§!"</v>
+        <v> BUL_toppling_giants_ns_target_tt: "Angriffsbonus gegen große europäische Länder, die an Bulgarien grenzen: §G§G 10.0% §!§! , Veteidigungsbonus gegen wichtige europäische Länder, die an Bulgarien grenzen: §G§G 10.0% §!§! "</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13801,11 +13801,11 @@
       </c>
       <c r="C636" s="1" t="str">
         <f aca="false">A636 &amp;" " &amp;"""" &amp;B636 &amp;""""</f>
-        <v> BUL_the_fight_against_bolshevism_ns_target_tt: "Angriffsbonus gegen §Ygroße kommunistische Länder in Europa§!: §G10.0%§!, Verteidigungsbonus gegen §Ygroße kommunistische Länder in Europa§!: §G10.0%§!"</v>
+        <v> BUL_the_fight_against_bolshevism_ns_target_tt: "Angriffsbonus gegen §Y§Y große kommunistische Länder in Europa §!§! : §G§G 10.0% §!§! , Verteidigungsbonus gegen §Y§Y große kommunistische Länder in Europa §!§! : §G§G 10.0% §!§! "</v>
       </c>
       <c r="D636" s="1" t="str">
         <f aca="false">IF(ISBLANK(A636),"",C636)</f>
-        <v> BUL_the_fight_against_bolshevism_ns_target_tt: "Angriffsbonus gegen §Ygroße kommunistische Länder in Europa§!: §G10.0%§!, Verteidigungsbonus gegen §Ygroße kommunistische Länder in Europa§!: §G10.0%§!"</v>
+        <v> BUL_the_fight_against_bolshevism_ns_target_tt: "Angriffsbonus gegen §Y§Y große kommunistische Länder in Europa §!§! : §G§G 10.0% §!§! , Verteidigungsbonus gegen §Y§Y große kommunistische Länder in Europa §!§! : §G§G 10.0% §!§! "</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
